--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_118.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_118.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32123-d217261-Reviews-Coast_Anabelle_Hotel-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>416</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Coast-Anabelle-Hotel.h119182.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_118.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_118.xlsx
@@ -6759,7 +6759,7 @@
         <v>37376</v>
       </c>
       <c r="B2" t="n">
-        <v>130875</v>
+        <v>161619</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6905,7 +6905,7 @@
         <v>37376</v>
       </c>
       <c r="B4" t="n">
-        <v>130876</v>
+        <v>161620</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -6976,7 +6976,7 @@
         <v>37376</v>
       </c>
       <c r="B5" t="n">
-        <v>130877</v>
+        <v>161621</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -7126,7 +7126,7 @@
         <v>37376</v>
       </c>
       <c r="B7" t="n">
-        <v>130878</v>
+        <v>161622</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -7252,7 +7252,7 @@
         <v>37376</v>
       </c>
       <c r="B9" t="n">
-        <v>130879</v>
+        <v>161623</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -7402,7 +7402,7 @@
         <v>37376</v>
       </c>
       <c r="B11" t="n">
-        <v>130880</v>
+        <v>161624</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -7477,7 +7477,7 @@
         <v>37376</v>
       </c>
       <c r="B12" t="n">
-        <v>130881</v>
+        <v>161625</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -7696,7 +7696,7 @@
         <v>37376</v>
       </c>
       <c r="B15" t="n">
-        <v>130882</v>
+        <v>161626</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -7771,7 +7771,7 @@
         <v>37376</v>
       </c>
       <c r="B16" t="n">
-        <v>130883</v>
+        <v>161627</v>
       </c>
       <c r="C16" t="s">
         <v>169</v>
@@ -7842,7 +7842,7 @@
         <v>37376</v>
       </c>
       <c r="B17" t="n">
-        <v>130884</v>
+        <v>161628</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
@@ -7992,7 +7992,7 @@
         <v>37376</v>
       </c>
       <c r="B19" t="n">
-        <v>130885</v>
+        <v>161629</v>
       </c>
       <c r="C19" t="s">
         <v>197</v>
@@ -8057,7 +8057,7 @@
         <v>37376</v>
       </c>
       <c r="B20" t="n">
-        <v>130886</v>
+        <v>161630</v>
       </c>
       <c r="C20" t="s">
         <v>206</v>
@@ -8132,7 +8132,7 @@
         <v>37376</v>
       </c>
       <c r="B21" t="n">
-        <v>130887</v>
+        <v>161631</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -8282,7 +8282,7 @@
         <v>37376</v>
       </c>
       <c r="B23" t="n">
-        <v>130888</v>
+        <v>161632</v>
       </c>
       <c r="C23" t="s">
         <v>234</v>
@@ -8351,7 +8351,7 @@
         <v>37376</v>
       </c>
       <c r="B24" t="n">
-        <v>130889</v>
+        <v>161633</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -8426,7 +8426,7 @@
         <v>37376</v>
       </c>
       <c r="B25" t="n">
-        <v>130890</v>
+        <v>161634</v>
       </c>
       <c r="C25" t="s">
         <v>254</v>
@@ -8501,7 +8501,7 @@
         <v>37376</v>
       </c>
       <c r="B26" t="n">
-        <v>130891</v>
+        <v>161635</v>
       </c>
       <c r="C26" t="s">
         <v>263</v>
@@ -8570,7 +8570,7 @@
         <v>37376</v>
       </c>
       <c r="B27" t="n">
-        <v>130892</v>
+        <v>161636</v>
       </c>
       <c r="C27" t="s">
         <v>273</v>
@@ -8712,7 +8712,7 @@
         <v>37376</v>
       </c>
       <c r="B29" t="n">
-        <v>130893</v>
+        <v>161637</v>
       </c>
       <c r="C29" t="s">
         <v>291</v>
@@ -8787,7 +8787,7 @@
         <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>130894</v>
+        <v>161638</v>
       </c>
       <c r="C30" t="s">
         <v>300</v>
@@ -8937,7 +8937,7 @@
         <v>37376</v>
       </c>
       <c r="B32" t="n">
-        <v>130895</v>
+        <v>161639</v>
       </c>
       <c r="C32" t="s">
         <v>318</v>
@@ -9012,7 +9012,7 @@
         <v>37376</v>
       </c>
       <c r="B33" t="n">
-        <v>130896</v>
+        <v>161640</v>
       </c>
       <c r="C33" t="s">
         <v>328</v>
@@ -9087,7 +9087,7 @@
         <v>37376</v>
       </c>
       <c r="B34" t="n">
-        <v>130897</v>
+        <v>161641</v>
       </c>
       <c r="C34" t="s">
         <v>337</v>
@@ -9162,7 +9162,7 @@
         <v>37376</v>
       </c>
       <c r="B35" t="n">
-        <v>130898</v>
+        <v>161642</v>
       </c>
       <c r="C35" t="s">
         <v>343</v>
@@ -9237,7 +9237,7 @@
         <v>37376</v>
       </c>
       <c r="B36" t="n">
-        <v>130899</v>
+        <v>161643</v>
       </c>
       <c r="C36" t="s">
         <v>353</v>
@@ -9312,7 +9312,7 @@
         <v>37376</v>
       </c>
       <c r="B37" t="n">
-        <v>130900</v>
+        <v>161644</v>
       </c>
       <c r="C37" t="s">
         <v>362</v>
@@ -9387,7 +9387,7 @@
         <v>37376</v>
       </c>
       <c r="B38" t="n">
-        <v>130901</v>
+        <v>161645</v>
       </c>
       <c r="C38" t="s">
         <v>371</v>
@@ -9462,7 +9462,7 @@
         <v>37376</v>
       </c>
       <c r="B39" t="n">
-        <v>130902</v>
+        <v>161646</v>
       </c>
       <c r="C39" t="s">
         <v>380</v>
@@ -9537,7 +9537,7 @@
         <v>37376</v>
       </c>
       <c r="B40" t="n">
-        <v>130903</v>
+        <v>161647</v>
       </c>
       <c r="C40" t="s">
         <v>390</v>
@@ -9677,7 +9677,7 @@
         <v>37376</v>
       </c>
       <c r="B42" t="n">
-        <v>130904</v>
+        <v>161648</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
@@ -9752,7 +9752,7 @@
         <v>37376</v>
       </c>
       <c r="B43" t="n">
-        <v>130905</v>
+        <v>161649</v>
       </c>
       <c r="C43" t="s">
         <v>418</v>
@@ -10253,7 +10253,7 @@
         <v>37376</v>
       </c>
       <c r="B50" t="n">
-        <v>130906</v>
+        <v>161650</v>
       </c>
       <c r="C50" t="s">
         <v>481</v>
@@ -10397,7 +10397,7 @@
         <v>37376</v>
       </c>
       <c r="B52" t="n">
-        <v>130907</v>
+        <v>161651</v>
       </c>
       <c r="C52" t="s">
         <v>498</v>
@@ -10472,7 +10472,7 @@
         <v>37376</v>
       </c>
       <c r="B53" t="n">
-        <v>130908</v>
+        <v>161652</v>
       </c>
       <c r="C53" t="s">
         <v>505</v>
@@ -10547,7 +10547,7 @@
         <v>37376</v>
       </c>
       <c r="B54" t="n">
-        <v>130909</v>
+        <v>161653</v>
       </c>
       <c r="C54" t="s">
         <v>514</v>
@@ -10618,7 +10618,7 @@
         <v>37376</v>
       </c>
       <c r="B55" t="n">
-        <v>130910</v>
+        <v>161654</v>
       </c>
       <c r="C55" t="s">
         <v>520</v>
@@ -10693,7 +10693,7 @@
         <v>37376</v>
       </c>
       <c r="B56" t="n">
-        <v>130911</v>
+        <v>161655</v>
       </c>
       <c r="C56" t="s">
         <v>529</v>
@@ -10833,7 +10833,7 @@
         <v>37376</v>
       </c>
       <c r="B58" t="n">
-        <v>130912</v>
+        <v>161656</v>
       </c>
       <c r="C58" t="s">
         <v>548</v>
@@ -10908,7 +10908,7 @@
         <v>37376</v>
       </c>
       <c r="B59" t="n">
-        <v>130913</v>
+        <v>161657</v>
       </c>
       <c r="C59" t="s">
         <v>557</v>
@@ -10983,7 +10983,7 @@
         <v>37376</v>
       </c>
       <c r="B60" t="n">
-        <v>130914</v>
+        <v>161658</v>
       </c>
       <c r="C60" t="s">
         <v>566</v>
@@ -11058,7 +11058,7 @@
         <v>37376</v>
       </c>
       <c r="B61" t="n">
-        <v>130915</v>
+        <v>161659</v>
       </c>
       <c r="C61" t="s">
         <v>575</v>
@@ -11127,7 +11127,7 @@
         <v>37376</v>
       </c>
       <c r="B62" t="n">
-        <v>130916</v>
+        <v>161660</v>
       </c>
       <c r="C62" t="s">
         <v>584</v>
@@ -11194,7 +11194,7 @@
         <v>37376</v>
       </c>
       <c r="B63" t="n">
-        <v>130917</v>
+        <v>161661</v>
       </c>
       <c r="C63" t="s">
         <v>594</v>
@@ -11265,7 +11265,7 @@
         <v>37376</v>
       </c>
       <c r="B64" t="n">
-        <v>130918</v>
+        <v>161662</v>
       </c>
       <c r="C64" t="s">
         <v>601</v>
@@ -11340,7 +11340,7 @@
         <v>37376</v>
       </c>
       <c r="B65" t="n">
-        <v>130919</v>
+        <v>161663</v>
       </c>
       <c r="C65" t="s">
         <v>610</v>
@@ -11405,7 +11405,7 @@
         <v>37376</v>
       </c>
       <c r="B66" t="n">
-        <v>130920</v>
+        <v>161664</v>
       </c>
       <c r="C66" t="s">
         <v>620</v>
@@ -11480,7 +11480,7 @@
         <v>37376</v>
       </c>
       <c r="B67" t="n">
-        <v>130921</v>
+        <v>161665</v>
       </c>
       <c r="C67" t="s">
         <v>627</v>
@@ -11545,7 +11545,7 @@
         <v>37376</v>
       </c>
       <c r="B68" t="n">
-        <v>130922</v>
+        <v>161666</v>
       </c>
       <c r="C68" t="s">
         <v>636</v>
@@ -11620,7 +11620,7 @@
         <v>37376</v>
       </c>
       <c r="B69" t="n">
-        <v>130923</v>
+        <v>161667</v>
       </c>
       <c r="C69" t="s">
         <v>645</v>
@@ -11695,7 +11695,7 @@
         <v>37376</v>
       </c>
       <c r="B70" t="n">
-        <v>130924</v>
+        <v>161668</v>
       </c>
       <c r="C70" t="s">
         <v>652</v>
@@ -11760,7 +11760,7 @@
         <v>37376</v>
       </c>
       <c r="B71" t="n">
-        <v>130925</v>
+        <v>161669</v>
       </c>
       <c r="C71" t="s">
         <v>659</v>
@@ -11906,7 +11906,7 @@
         <v>37376</v>
       </c>
       <c r="B73" t="n">
-        <v>130926</v>
+        <v>161670</v>
       </c>
       <c r="C73" t="s">
         <v>679</v>
@@ -12042,7 +12042,7 @@
         <v>37376</v>
       </c>
       <c r="B75" t="n">
-        <v>130927</v>
+        <v>161671</v>
       </c>
       <c r="C75" t="s">
         <v>695</v>
@@ -12117,7 +12117,7 @@
         <v>37376</v>
       </c>
       <c r="B76" t="n">
-        <v>130928</v>
+        <v>161672</v>
       </c>
       <c r="C76" t="s">
         <v>702</v>
@@ -12192,7 +12192,7 @@
         <v>37376</v>
       </c>
       <c r="B77" t="n">
-        <v>130929</v>
+        <v>161673</v>
       </c>
       <c r="C77" t="s">
         <v>709</v>
@@ -12267,7 +12267,7 @@
         <v>37376</v>
       </c>
       <c r="B78" t="n">
-        <v>130930</v>
+        <v>161674</v>
       </c>
       <c r="C78" t="s">
         <v>716</v>
@@ -12342,7 +12342,7 @@
         <v>37376</v>
       </c>
       <c r="B79" t="n">
-        <v>130931</v>
+        <v>161675</v>
       </c>
       <c r="C79" t="s">
         <v>723</v>
@@ -12543,7 +12543,7 @@
         <v>37376</v>
       </c>
       <c r="B82" t="n">
-        <v>130932</v>
+        <v>161676</v>
       </c>
       <c r="C82" t="s">
         <v>745</v>
@@ -12689,7 +12689,7 @@
         <v>37376</v>
       </c>
       <c r="B84" t="n">
-        <v>130933</v>
+        <v>161677</v>
       </c>
       <c r="C84" t="s">
         <v>761</v>
@@ -12825,7 +12825,7 @@
         <v>37376</v>
       </c>
       <c r="B86" t="n">
-        <v>130934</v>
+        <v>161678</v>
       </c>
       <c r="C86" t="s">
         <v>774</v>
@@ -12959,7 +12959,7 @@
         <v>37376</v>
       </c>
       <c r="B88" t="n">
-        <v>130935</v>
+        <v>161679</v>
       </c>
       <c r="C88" t="s">
         <v>791</v>
@@ -13180,7 +13180,7 @@
         <v>37376</v>
       </c>
       <c r="B91" t="n">
-        <v>130936</v>
+        <v>161680</v>
       </c>
       <c r="C91" t="s">
         <v>814</v>
@@ -13255,7 +13255,7 @@
         <v>37376</v>
       </c>
       <c r="B92" t="n">
-        <v>130937</v>
+        <v>161681</v>
       </c>
       <c r="C92" t="s">
         <v>823</v>
@@ -13330,7 +13330,7 @@
         <v>37376</v>
       </c>
       <c r="B93" t="n">
-        <v>130938</v>
+        <v>161682</v>
       </c>
       <c r="C93" t="s">
         <v>832</v>
@@ -13405,7 +13405,7 @@
         <v>37376</v>
       </c>
       <c r="B94" t="n">
-        <v>130939</v>
+        <v>161683</v>
       </c>
       <c r="C94" t="s">
         <v>841</v>
@@ -13480,7 +13480,7 @@
         <v>37376</v>
       </c>
       <c r="B95" t="n">
-        <v>130940</v>
+        <v>161684</v>
       </c>
       <c r="C95" t="s">
         <v>848</v>
@@ -13555,7 +13555,7 @@
         <v>37376</v>
       </c>
       <c r="B96" t="n">
-        <v>130941</v>
+        <v>161685</v>
       </c>
       <c r="C96" t="s">
         <v>857</v>
@@ -13630,7 +13630,7 @@
         <v>37376</v>
       </c>
       <c r="B97" t="n">
-        <v>130942</v>
+        <v>161686</v>
       </c>
       <c r="C97" t="s">
         <v>867</v>
@@ -13705,7 +13705,7 @@
         <v>37376</v>
       </c>
       <c r="B98" t="n">
-        <v>130943</v>
+        <v>161687</v>
       </c>
       <c r="C98" t="s">
         <v>874</v>
@@ -13780,7 +13780,7 @@
         <v>37376</v>
       </c>
       <c r="B99" t="n">
-        <v>130944</v>
+        <v>161688</v>
       </c>
       <c r="C99" t="s">
         <v>883</v>
@@ -13855,7 +13855,7 @@
         <v>37376</v>
       </c>
       <c r="B100" t="n">
-        <v>130945</v>
+        <v>161689</v>
       </c>
       <c r="C100" t="s">
         <v>890</v>
@@ -13991,7 +13991,7 @@
         <v>37376</v>
       </c>
       <c r="B102" t="n">
-        <v>130946</v>
+        <v>161690</v>
       </c>
       <c r="C102" t="s">
         <v>908</v>
@@ -14066,7 +14066,7 @@
         <v>37376</v>
       </c>
       <c r="B103" t="n">
-        <v>130947</v>
+        <v>161691</v>
       </c>
       <c r="C103" t="s">
         <v>918</v>
@@ -14141,7 +14141,7 @@
         <v>37376</v>
       </c>
       <c r="B104" t="n">
-        <v>130948</v>
+        <v>161692</v>
       </c>
       <c r="C104" t="s">
         <v>927</v>
@@ -14212,7 +14212,7 @@
         <v>37376</v>
       </c>
       <c r="B105" t="n">
-        <v>130949</v>
+        <v>161693</v>
       </c>
       <c r="C105" t="s">
         <v>933</v>
@@ -14281,7 +14281,7 @@
         <v>37376</v>
       </c>
       <c r="B106" t="n">
-        <v>130950</v>
+        <v>161694</v>
       </c>
       <c r="C106" t="s">
         <v>943</v>
@@ -14346,7 +14346,7 @@
         <v>37376</v>
       </c>
       <c r="B107" t="n">
-        <v>130951</v>
+        <v>161695</v>
       </c>
       <c r="C107" t="s">
         <v>952</v>
@@ -14421,7 +14421,7 @@
         <v>37376</v>
       </c>
       <c r="B108" t="n">
-        <v>130952</v>
+        <v>161696</v>
       </c>
       <c r="C108" t="s">
         <v>961</v>
@@ -14496,7 +14496,7 @@
         <v>37376</v>
       </c>
       <c r="B109" t="n">
-        <v>130953</v>
+        <v>161697</v>
       </c>
       <c r="C109" t="s">
         <v>968</v>
@@ -14567,7 +14567,7 @@
         <v>37376</v>
       </c>
       <c r="B110" t="n">
-        <v>130954</v>
+        <v>161698</v>
       </c>
       <c r="C110" t="s">
         <v>974</v>
@@ -14713,7 +14713,7 @@
         <v>37376</v>
       </c>
       <c r="B112" t="n">
-        <v>130955</v>
+        <v>161699</v>
       </c>
       <c r="C112" t="s">
         <v>992</v>
@@ -14774,7 +14774,7 @@
         <v>37376</v>
       </c>
       <c r="B113" t="n">
-        <v>130956</v>
+        <v>161700</v>
       </c>
       <c r="C113" t="s">
         <v>999</v>
@@ -14849,7 +14849,7 @@
         <v>37376</v>
       </c>
       <c r="B114" t="n">
-        <v>130957</v>
+        <v>161701</v>
       </c>
       <c r="C114" t="s">
         <v>1008</v>
@@ -14924,7 +14924,7 @@
         <v>37376</v>
       </c>
       <c r="B115" t="n">
-        <v>130958</v>
+        <v>161702</v>
       </c>
       <c r="C115" t="s">
         <v>1017</v>
@@ -14993,7 +14993,7 @@
         <v>37376</v>
       </c>
       <c r="B116" t="n">
-        <v>130959</v>
+        <v>161703</v>
       </c>
       <c r="C116" t="s">
         <v>1027</v>
@@ -15068,7 +15068,7 @@
         <v>37376</v>
       </c>
       <c r="B117" t="n">
-        <v>130960</v>
+        <v>161704</v>
       </c>
       <c r="C117" t="s">
         <v>1036</v>
@@ -15137,7 +15137,7 @@
         <v>37376</v>
       </c>
       <c r="B118" t="n">
-        <v>130961</v>
+        <v>161705</v>
       </c>
       <c r="C118" t="s">
         <v>1045</v>
@@ -15283,7 +15283,7 @@
         <v>37376</v>
       </c>
       <c r="B120" t="n">
-        <v>130962</v>
+        <v>161706</v>
       </c>
       <c r="C120" t="s">
         <v>1061</v>
@@ -15429,7 +15429,7 @@
         <v>37376</v>
       </c>
       <c r="B122" t="n">
-        <v>130963</v>
+        <v>161707</v>
       </c>
       <c r="C122" t="s">
         <v>1080</v>
@@ -15494,7 +15494,7 @@
         <v>37376</v>
       </c>
       <c r="B123" t="n">
-        <v>130964</v>
+        <v>161708</v>
       </c>
       <c r="C123" t="s">
         <v>1089</v>
@@ -15565,7 +15565,7 @@
         <v>37376</v>
       </c>
       <c r="B124" t="n">
-        <v>130965</v>
+        <v>161709</v>
       </c>
       <c r="C124" t="s">
         <v>1098</v>
@@ -15630,7 +15630,7 @@
         <v>37376</v>
       </c>
       <c r="B125" t="n">
-        <v>130966</v>
+        <v>161710</v>
       </c>
       <c r="C125" t="s">
         <v>1105</v>
@@ -15770,7 +15770,7 @@
         <v>37376</v>
       </c>
       <c r="B127" t="n">
-        <v>130967</v>
+        <v>161711</v>
       </c>
       <c r="C127" t="s">
         <v>1122</v>
@@ -15839,7 +15839,7 @@
         <v>37376</v>
       </c>
       <c r="B128" t="n">
-        <v>130968</v>
+        <v>161712</v>
       </c>
       <c r="C128" t="s">
         <v>1130</v>
@@ -15908,7 +15908,7 @@
         <v>37376</v>
       </c>
       <c r="B129" t="n">
-        <v>130969</v>
+        <v>161713</v>
       </c>
       <c r="C129" t="s">
         <v>1140</v>
@@ -15983,7 +15983,7 @@
         <v>37376</v>
       </c>
       <c r="B130" t="n">
-        <v>130970</v>
+        <v>161714</v>
       </c>
       <c r="C130" t="s">
         <v>1148</v>
@@ -16052,7 +16052,7 @@
         <v>37376</v>
       </c>
       <c r="B131" t="n">
-        <v>130971</v>
+        <v>161715</v>
       </c>
       <c r="C131" t="s">
         <v>1157</v>
@@ -16127,7 +16127,7 @@
         <v>37376</v>
       </c>
       <c r="B132" t="n">
-        <v>130972</v>
+        <v>161716</v>
       </c>
       <c r="C132" t="s">
         <v>1166</v>
@@ -16202,7 +16202,7 @@
         <v>37376</v>
       </c>
       <c r="B133" t="n">
-        <v>130973</v>
+        <v>161717</v>
       </c>
       <c r="C133" t="s">
         <v>1175</v>
@@ -16277,7 +16277,7 @@
         <v>37376</v>
       </c>
       <c r="B134" t="n">
-        <v>130974</v>
+        <v>161718</v>
       </c>
       <c r="C134" t="s">
         <v>1184</v>
@@ -16348,7 +16348,7 @@
         <v>37376</v>
       </c>
       <c r="B135" t="n">
-        <v>130975</v>
+        <v>161719</v>
       </c>
       <c r="C135" t="s">
         <v>1193</v>
@@ -16423,7 +16423,7 @@
         <v>37376</v>
       </c>
       <c r="B136" t="n">
-        <v>130976</v>
+        <v>161720</v>
       </c>
       <c r="C136" t="s">
         <v>1202</v>
@@ -16559,7 +16559,7 @@
         <v>37376</v>
       </c>
       <c r="B138" t="n">
-        <v>130977</v>
+        <v>161721</v>
       </c>
       <c r="C138" t="s">
         <v>1220</v>
@@ -16634,7 +16634,7 @@
         <v>37376</v>
       </c>
       <c r="B139" t="n">
-        <v>130978</v>
+        <v>161722</v>
       </c>
       <c r="C139" t="s">
         <v>1230</v>
@@ -16784,7 +16784,7 @@
         <v>37376</v>
       </c>
       <c r="B141" t="n">
-        <v>130979</v>
+        <v>161723</v>
       </c>
       <c r="C141" t="s">
         <v>1246</v>
@@ -16855,7 +16855,7 @@
         <v>37376</v>
       </c>
       <c r="B142" t="n">
-        <v>130980</v>
+        <v>161724</v>
       </c>
       <c r="C142" t="s">
         <v>1252</v>
@@ -17001,7 +17001,7 @@
         <v>37376</v>
       </c>
       <c r="B144" t="n">
-        <v>130981</v>
+        <v>161725</v>
       </c>
       <c r="C144" t="s">
         <v>1267</v>
@@ -17147,7 +17147,7 @@
         <v>37376</v>
       </c>
       <c r="B146" t="n">
-        <v>130982</v>
+        <v>161726</v>
       </c>
       <c r="C146" t="s">
         <v>1281</v>
@@ -17222,7 +17222,7 @@
         <v>37376</v>
       </c>
       <c r="B147" t="n">
-        <v>130983</v>
+        <v>161727</v>
       </c>
       <c r="C147" t="s">
         <v>1288</v>
@@ -17372,7 +17372,7 @@
         <v>37376</v>
       </c>
       <c r="B149" t="n">
-        <v>130984</v>
+        <v>161728</v>
       </c>
       <c r="C149" t="s">
         <v>1302</v>
@@ -17437,7 +17437,7 @@
         <v>37376</v>
       </c>
       <c r="B150" t="n">
-        <v>130985</v>
+        <v>161729</v>
       </c>
       <c r="C150" t="s">
         <v>1309</v>
@@ -17502,7 +17502,7 @@
         <v>37376</v>
       </c>
       <c r="B151" t="n">
-        <v>130986</v>
+        <v>161730</v>
       </c>
       <c r="C151" t="s">
         <v>1316</v>
@@ -17707,7 +17707,7 @@
         <v>37376</v>
       </c>
       <c r="B154" t="n">
-        <v>130987</v>
+        <v>161731</v>
       </c>
       <c r="C154" t="s">
         <v>1338</v>
@@ -17778,7 +17778,7 @@
         <v>37376</v>
       </c>
       <c r="B155" t="n">
-        <v>130988</v>
+        <v>161732</v>
       </c>
       <c r="C155" t="s">
         <v>1346</v>
@@ -17849,7 +17849,7 @@
         <v>37376</v>
       </c>
       <c r="B156" t="n">
-        <v>130989</v>
+        <v>161733</v>
       </c>
       <c r="C156" t="s">
         <v>1354</v>
@@ -17914,7 +17914,7 @@
         <v>37376</v>
       </c>
       <c r="B157" t="n">
-        <v>130990</v>
+        <v>161734</v>
       </c>
       <c r="C157" t="s">
         <v>1362</v>
@@ -17985,7 +17985,7 @@
         <v>37376</v>
       </c>
       <c r="B158" t="n">
-        <v>130991</v>
+        <v>161735</v>
       </c>
       <c r="C158" t="s">
         <v>1370</v>
@@ -18121,7 +18121,7 @@
         <v>37376</v>
       </c>
       <c r="B160" t="n">
-        <v>130992</v>
+        <v>161736</v>
       </c>
       <c r="C160" t="s">
         <v>1386</v>
@@ -18192,7 +18192,7 @@
         <v>37376</v>
       </c>
       <c r="B161" t="n">
-        <v>130993</v>
+        <v>161737</v>
       </c>
       <c r="C161" t="s">
         <v>1393</v>
@@ -18263,7 +18263,7 @@
         <v>37376</v>
       </c>
       <c r="B162" t="n">
-        <v>130994</v>
+        <v>161738</v>
       </c>
       <c r="C162" t="s">
         <v>1401</v>
@@ -18332,7 +18332,7 @@
         <v>37376</v>
       </c>
       <c r="B163" t="n">
-        <v>130995</v>
+        <v>161739</v>
       </c>
       <c r="C163" t="s">
         <v>1407</v>
@@ -18403,7 +18403,7 @@
         <v>37376</v>
       </c>
       <c r="B164" t="n">
-        <v>130996</v>
+        <v>161740</v>
       </c>
       <c r="C164" t="s">
         <v>1413</v>
@@ -18474,7 +18474,7 @@
         <v>37376</v>
       </c>
       <c r="B165" t="n">
-        <v>130997</v>
+        <v>161741</v>
       </c>
       <c r="C165" t="s">
         <v>1420</v>
@@ -18545,7 +18545,7 @@
         <v>37376</v>
       </c>
       <c r="B166" t="n">
-        <v>130998</v>
+        <v>161742</v>
       </c>
       <c r="C166" t="s">
         <v>1428</v>
@@ -18614,7 +18614,7 @@
         <v>37376</v>
       </c>
       <c r="B167" t="n">
-        <v>130999</v>
+        <v>161743</v>
       </c>
       <c r="C167" t="s">
         <v>1436</v>
@@ -18683,7 +18683,7 @@
         <v>37376</v>
       </c>
       <c r="B168" t="n">
-        <v>131000</v>
+        <v>161744</v>
       </c>
       <c r="C168" t="s">
         <v>1444</v>
@@ -18748,7 +18748,7 @@
         <v>37376</v>
       </c>
       <c r="B169" t="n">
-        <v>131001</v>
+        <v>161745</v>
       </c>
       <c r="C169" t="s">
         <v>1453</v>
@@ -19030,7 +19030,7 @@
         <v>37376</v>
       </c>
       <c r="B173" t="n">
-        <v>131002</v>
+        <v>161746</v>
       </c>
       <c r="C173" t="s">
         <v>1482</v>
@@ -19227,7 +19227,7 @@
         <v>37376</v>
       </c>
       <c r="B176" t="n">
-        <v>131003</v>
+        <v>161747</v>
       </c>
       <c r="C176" t="s">
         <v>1505</v>
@@ -19302,7 +19302,7 @@
         <v>37376</v>
       </c>
       <c r="B177" t="n">
-        <v>131004</v>
+        <v>161748</v>
       </c>
       <c r="C177" t="s">
         <v>1513</v>
@@ -19377,7 +19377,7 @@
         <v>37376</v>
       </c>
       <c r="B178" t="n">
-        <v>131005</v>
+        <v>161749</v>
       </c>
       <c r="C178" t="s">
         <v>1521</v>
@@ -19452,7 +19452,7 @@
         <v>37376</v>
       </c>
       <c r="B179" t="n">
-        <v>131006</v>
+        <v>161750</v>
       </c>
       <c r="C179" t="s">
         <v>1529</v>
@@ -19527,7 +19527,7 @@
         <v>37376</v>
       </c>
       <c r="B180" t="n">
-        <v>131007</v>
+        <v>161751</v>
       </c>
       <c r="C180" t="s">
         <v>1539</v>
@@ -19602,7 +19602,7 @@
         <v>37376</v>
       </c>
       <c r="B181" t="n">
-        <v>131008</v>
+        <v>161752</v>
       </c>
       <c r="C181" t="s">
         <v>1546</v>
@@ -19752,7 +19752,7 @@
         <v>37376</v>
       </c>
       <c r="B183" t="n">
-        <v>131009</v>
+        <v>161753</v>
       </c>
       <c r="C183" t="s">
         <v>1563</v>
@@ -19827,7 +19827,7 @@
         <v>37376</v>
       </c>
       <c r="B184" t="n">
-        <v>131010</v>
+        <v>161754</v>
       </c>
       <c r="C184" t="s">
         <v>1570</v>
@@ -19977,7 +19977,7 @@
         <v>37376</v>
       </c>
       <c r="B186" t="n">
-        <v>131011</v>
+        <v>161755</v>
       </c>
       <c r="C186" t="s">
         <v>1590</v>
@@ -20125,7 +20125,7 @@
         <v>37376</v>
       </c>
       <c r="B188" t="n">
-        <v>131012</v>
+        <v>161756</v>
       </c>
       <c r="C188" t="s">
         <v>1609</v>
@@ -20200,7 +20200,7 @@
         <v>37376</v>
       </c>
       <c r="B189" t="n">
-        <v>131013</v>
+        <v>161757</v>
       </c>
       <c r="C189" t="s">
         <v>1617</v>
@@ -20275,7 +20275,7 @@
         <v>37376</v>
       </c>
       <c r="B190" t="n">
-        <v>131014</v>
+        <v>161758</v>
       </c>
       <c r="C190" t="s">
         <v>1626</v>
@@ -20350,7 +20350,7 @@
         <v>37376</v>
       </c>
       <c r="B191" t="n">
-        <v>131015</v>
+        <v>161759</v>
       </c>
       <c r="C191" t="s">
         <v>1636</v>
@@ -20500,7 +20500,7 @@
         <v>37376</v>
       </c>
       <c r="B193" t="n">
-        <v>131016</v>
+        <v>161760</v>
       </c>
       <c r="C193" t="s">
         <v>1655</v>
@@ -20575,7 +20575,7 @@
         <v>37376</v>
       </c>
       <c r="B194" t="n">
-        <v>131017</v>
+        <v>161761</v>
       </c>
       <c r="C194" t="s">
         <v>1665</v>
@@ -20646,7 +20646,7 @@
         <v>37376</v>
       </c>
       <c r="B195" t="n">
-        <v>131018</v>
+        <v>161762</v>
       </c>
       <c r="C195" t="s">
         <v>1674</v>
@@ -20721,7 +20721,7 @@
         <v>37376</v>
       </c>
       <c r="B196" t="n">
-        <v>131019</v>
+        <v>161763</v>
       </c>
       <c r="C196" t="s">
         <v>1684</v>
@@ -20871,7 +20871,7 @@
         <v>37376</v>
       </c>
       <c r="B198" t="n">
-        <v>131020</v>
+        <v>161764</v>
       </c>
       <c r="C198" t="s">
         <v>1702</v>
@@ -20946,7 +20946,7 @@
         <v>37376</v>
       </c>
       <c r="B199" t="n">
-        <v>131021</v>
+        <v>161765</v>
       </c>
       <c r="C199" t="s">
         <v>1711</v>
@@ -21096,7 +21096,7 @@
         <v>37376</v>
       </c>
       <c r="B201" t="n">
-        <v>131022</v>
+        <v>161766</v>
       </c>
       <c r="C201" t="s">
         <v>1730</v>
@@ -21321,7 +21321,7 @@
         <v>37376</v>
       </c>
       <c r="B204" t="n">
-        <v>131023</v>
+        <v>161767</v>
       </c>
       <c r="C204" t="s">
         <v>1759</v>
@@ -21461,7 +21461,7 @@
         <v>37376</v>
       </c>
       <c r="B206" t="n">
-        <v>131024</v>
+        <v>161768</v>
       </c>
       <c r="C206" t="s">
         <v>1776</v>
@@ -21611,7 +21611,7 @@
         <v>37376</v>
       </c>
       <c r="B208" t="n">
-        <v>131025</v>
+        <v>161769</v>
       </c>
       <c r="C208" t="s">
         <v>1791</v>
@@ -21686,7 +21686,7 @@
         <v>37376</v>
       </c>
       <c r="B209" t="n">
-        <v>131026</v>
+        <v>161770</v>
       </c>
       <c r="C209" t="s">
         <v>1798</v>
@@ -21761,7 +21761,7 @@
         <v>37376</v>
       </c>
       <c r="B210" t="n">
-        <v>131027</v>
+        <v>161771</v>
       </c>
       <c r="C210" t="s">
         <v>1806</v>
@@ -21832,7 +21832,7 @@
         <v>37376</v>
       </c>
       <c r="B211" t="n">
-        <v>131028</v>
+        <v>161772</v>
       </c>
       <c r="C211" t="s">
         <v>1815</v>
@@ -21907,7 +21907,7 @@
         <v>37376</v>
       </c>
       <c r="B212" t="n">
-        <v>131029</v>
+        <v>161773</v>
       </c>
       <c r="C212" t="s">
         <v>1822</v>
@@ -22132,7 +22132,7 @@
         <v>37376</v>
       </c>
       <c r="B215" t="n">
-        <v>131030</v>
+        <v>161774</v>
       </c>
       <c r="C215" t="s">
         <v>1843</v>
@@ -22207,7 +22207,7 @@
         <v>37376</v>
       </c>
       <c r="B216" t="n">
-        <v>131031</v>
+        <v>161775</v>
       </c>
       <c r="C216" t="s">
         <v>1850</v>
@@ -22357,7 +22357,7 @@
         <v>37376</v>
       </c>
       <c r="B218" t="n">
-        <v>131032</v>
+        <v>161776</v>
       </c>
       <c r="C218" t="s">
         <v>1865</v>
@@ -22432,7 +22432,7 @@
         <v>37376</v>
       </c>
       <c r="B219" t="n">
-        <v>131033</v>
+        <v>161777</v>
       </c>
       <c r="C219" t="s">
         <v>1873</v>
@@ -22503,7 +22503,7 @@
         <v>37376</v>
       </c>
       <c r="B220" t="n">
-        <v>131034</v>
+        <v>161778</v>
       </c>
       <c r="C220" t="s">
         <v>1880</v>
@@ -22574,7 +22574,7 @@
         <v>37376</v>
       </c>
       <c r="B221" t="n">
-        <v>131035</v>
+        <v>161779</v>
       </c>
       <c r="C221" t="s">
         <v>1887</v>
@@ -22645,7 +22645,7 @@
         <v>37376</v>
       </c>
       <c r="B222" t="n">
-        <v>131036</v>
+        <v>161780</v>
       </c>
       <c r="C222" t="s">
         <v>1894</v>
@@ -22716,7 +22716,7 @@
         <v>37376</v>
       </c>
       <c r="B223" t="n">
-        <v>131037</v>
+        <v>161781</v>
       </c>
       <c r="C223" t="s">
         <v>1901</v>
@@ -22787,7 +22787,7 @@
         <v>37376</v>
       </c>
       <c r="B224" t="n">
-        <v>131038</v>
+        <v>161782</v>
       </c>
       <c r="C224" t="s">
         <v>1908</v>
@@ -22858,7 +22858,7 @@
         <v>37376</v>
       </c>
       <c r="B225" t="n">
-        <v>131039</v>
+        <v>161783</v>
       </c>
       <c r="C225" t="s">
         <v>1914</v>
@@ -22925,7 +22925,7 @@
         <v>37376</v>
       </c>
       <c r="B226" t="n">
-        <v>131040</v>
+        <v>161784</v>
       </c>
       <c r="C226" t="s">
         <v>1922</v>
@@ -22992,7 +22992,7 @@
         <v>37376</v>
       </c>
       <c r="B227" t="n">
-        <v>131041</v>
+        <v>161785</v>
       </c>
       <c r="C227" t="s">
         <v>1928</v>
@@ -23063,7 +23063,7 @@
         <v>37376</v>
       </c>
       <c r="B228" t="n">
-        <v>131042</v>
+        <v>161786</v>
       </c>
       <c r="C228" t="s">
         <v>1935</v>
@@ -23124,7 +23124,7 @@
         <v>37376</v>
       </c>
       <c r="B229" t="n">
-        <v>131043</v>
+        <v>161787</v>
       </c>
       <c r="C229" t="s">
         <v>1942</v>
@@ -23195,7 +23195,7 @@
         <v>37376</v>
       </c>
       <c r="B230" t="n">
-        <v>131044</v>
+        <v>161788</v>
       </c>
       <c r="C230" t="s">
         <v>1950</v>
@@ -23266,7 +23266,7 @@
         <v>37376</v>
       </c>
       <c r="B231" t="n">
-        <v>131045</v>
+        <v>161789</v>
       </c>
       <c r="C231" t="s">
         <v>1956</v>
@@ -23337,7 +23337,7 @@
         <v>37376</v>
       </c>
       <c r="B232" t="n">
-        <v>131046</v>
+        <v>161790</v>
       </c>
       <c r="C232" t="s">
         <v>1963</v>
@@ -23408,7 +23408,7 @@
         <v>37376</v>
       </c>
       <c r="B233" t="n">
-        <v>131047</v>
+        <v>161791</v>
       </c>
       <c r="C233" t="s">
         <v>1970</v>
@@ -23475,7 +23475,7 @@
         <v>37376</v>
       </c>
       <c r="B234" t="n">
-        <v>131048</v>
+        <v>161792</v>
       </c>
       <c r="C234" t="s">
         <v>1977</v>
@@ -23546,7 +23546,7 @@
         <v>37376</v>
       </c>
       <c r="B235" t="n">
-        <v>131049</v>
+        <v>161793</v>
       </c>
       <c r="C235" t="s">
         <v>1985</v>
@@ -23603,7 +23603,7 @@
         <v>37376</v>
       </c>
       <c r="B236" t="n">
-        <v>131050</v>
+        <v>161794</v>
       </c>
       <c r="C236" t="s">
         <v>1991</v>
@@ -23808,7 +23808,7 @@
         <v>37376</v>
       </c>
       <c r="B239" t="n">
-        <v>131051</v>
+        <v>161795</v>
       </c>
       <c r="C239" t="s">
         <v>2011</v>
@@ -23873,7 +23873,7 @@
         <v>37376</v>
       </c>
       <c r="B240" t="n">
-        <v>131052</v>
+        <v>161796</v>
       </c>
       <c r="C240" t="s">
         <v>2018</v>
@@ -23930,7 +23930,7 @@
         <v>37376</v>
       </c>
       <c r="B241" t="n">
-        <v>131053</v>
+        <v>161797</v>
       </c>
       <c r="C241" t="s">
         <v>2025</v>
@@ -24052,7 +24052,7 @@
         <v>37376</v>
       </c>
       <c r="B243" t="n">
-        <v>131054</v>
+        <v>161798</v>
       </c>
       <c r="C243" t="s">
         <v>2037</v>
@@ -24117,7 +24117,7 @@
         <v>37376</v>
       </c>
       <c r="B244" t="n">
-        <v>131055</v>
+        <v>161799</v>
       </c>
       <c r="C244" t="s">
         <v>2043</v>
@@ -24186,7 +24186,7 @@
         <v>37376</v>
       </c>
       <c r="B245" t="n">
-        <v>131056</v>
+        <v>161800</v>
       </c>
       <c r="C245" t="s">
         <v>2051</v>
